--- a/data/trans_dic/P02E$ssociales-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,62</t>
+          <t>0,0; 4,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,19</t>
+          <t>2,21; 8,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 9,5</t>
+          <t>1,67; 8,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,21</t>
+          <t>1,58; 5,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 3,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,0</t>
+          <t>0,23; 2,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,3</t>
+          <t>2,16; 5,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,93</t>
+          <t>0,85; 3,98</t>
         </is>
       </c>
     </row>
@@ -795,32 +796,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,35</t>
+          <t>0,48; 2,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,42</t>
+          <t>0,4; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,54</t>
+          <t>0,33; 1,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,54</t>
+          <t>0,71; 2,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -830,12 +831,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,44</t>
+          <t>0,52; 1,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,01</t>
+          <t>0,74; 2,0</t>
         </is>
       </c>
     </row>
@@ -910,7 +911,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 3,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,56</t>
+          <t>1,0; 2,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,39</t>
+          <t>0,68; 2,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,1</t>
+          <t>0,19; 1,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,92</t>
+          <t>0,81; 1,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,71</t>
+          <t>0,49; 1,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,83</t>
+          <t>0,18; 0,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,94</t>
+          <t>0,99; 1,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,73</t>
+          <t>0,71; 1,74</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es profesional de los servicios Sociales o sanitarios</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8268</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5301</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11603</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2862</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19871</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6255</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5023</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3997; 15466</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2130; 11256</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5879</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6145; 20485</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7012</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>893; 7873</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12269; 29649</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2765; 12938</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6839</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5139</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9581</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2819</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13900</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14720</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4162</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2990; 14740</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1941; 10422</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6393</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3007; 14002</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4931; 17337</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>881; 7430</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7941; 21957</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8706; 23581</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1134</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8527</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5111</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5721</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6274</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7178</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2034</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16241</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10440</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19675</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10536</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6696</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35916</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20975</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5789</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9875; 26290</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5145; 18290</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1878; 10719</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12289; 29755</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5423; 19232</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2909; 13638</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24778; 48170</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13168; 32317</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>